--- a/data_year/zb/能源/人均能源生产量和消费量.xlsx
+++ b/data_year/zb/能源/人均能源生产量和消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,621 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>1096</v>
+        <v>2563</v>
       </c>
       <c r="D2" t="n">
-        <v>1075</v>
+        <v>2609</v>
       </c>
       <c r="E2" t="n">
-        <v>1067</v>
+        <v>3135</v>
       </c>
       <c r="F2" t="n">
-        <v>1074</v>
+        <v>3145</v>
       </c>
       <c r="G2" t="n">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="H2" t="n">
-        <v>1156</v>
+        <v>2696</v>
       </c>
       <c r="I2" t="n">
-        <v>1097</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>1157</v>
+        <v>2801</v>
       </c>
       <c r="D3" t="n">
-        <v>1125</v>
+        <v>2894</v>
       </c>
       <c r="E3" t="n">
-        <v>1158</v>
+        <v>3497</v>
       </c>
       <c r="F3" t="n">
-        <v>1164</v>
+        <v>3506</v>
       </c>
       <c r="G3" t="n">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="H3" t="n">
-        <v>1223</v>
+        <v>2880</v>
       </c>
       <c r="I3" t="n">
-        <v>1159</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
-        <v>1211</v>
+        <v>2921</v>
       </c>
       <c r="D4" t="n">
-        <v>1200</v>
+        <v>3018</v>
       </c>
       <c r="E4" t="n">
-        <v>1286</v>
+        <v>3684</v>
       </c>
       <c r="F4" t="n">
-        <v>1292</v>
+        <v>3693</v>
       </c>
       <c r="G4" t="n">
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="H4" t="n">
-        <v>1324</v>
+        <v>2977</v>
       </c>
       <c r="I4" t="n">
-        <v>1221</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
-        <v>1424</v>
+        <v>2928</v>
       </c>
       <c r="D5" t="n">
-        <v>1426</v>
+        <v>3127</v>
       </c>
       <c r="E5" t="n">
-        <v>1477</v>
+        <v>3993</v>
       </c>
       <c r="F5" t="n">
-        <v>1483</v>
+        <v>4002</v>
       </c>
       <c r="G5" t="n">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="H5" t="n">
-        <v>1530</v>
+        <v>3071</v>
       </c>
       <c r="I5" t="n">
-        <v>1384</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>1638</v>
+        <v>2840</v>
       </c>
       <c r="D6" t="n">
-        <v>1637</v>
+        <v>3032</v>
       </c>
       <c r="E6" t="n">
-        <v>1695</v>
+        <v>4239</v>
       </c>
       <c r="F6" t="n">
-        <v>1700</v>
+        <v>4247</v>
       </c>
       <c r="G6" t="n">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="H6" t="n">
-        <v>1777</v>
+        <v>3140</v>
       </c>
       <c r="I6" t="n">
-        <v>1590</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C7" t="n">
-        <v>1814</v>
+        <v>2732</v>
       </c>
       <c r="D7" t="n">
-        <v>1867</v>
+        <v>2916</v>
       </c>
       <c r="E7" t="n">
-        <v>1913</v>
+        <v>4231</v>
       </c>
       <c r="F7" t="n">
-        <v>1918</v>
+        <v>4240</v>
       </c>
       <c r="G7" t="n">
-        <v>250</v>
+        <v>408</v>
       </c>
       <c r="H7" t="n">
-        <v>2005</v>
+        <v>3166</v>
       </c>
       <c r="I7" t="n">
-        <v>1757</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C8" t="n">
-        <v>1960</v>
+        <v>2474</v>
       </c>
       <c r="D8" t="n">
-        <v>2064</v>
+        <v>2820</v>
       </c>
       <c r="E8" t="n">
-        <v>2181</v>
+        <v>4439</v>
       </c>
       <c r="F8" t="n">
-        <v>2186</v>
+        <v>4449</v>
       </c>
       <c r="G8" t="n">
-        <v>266</v>
+        <v>418</v>
       </c>
       <c r="H8" t="n">
-        <v>2185</v>
+        <v>3202</v>
       </c>
       <c r="I8" t="n">
-        <v>1867</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" t="n">
-        <v>2094</v>
+        <v>2542</v>
       </c>
       <c r="D9" t="n">
-        <v>2204</v>
+        <v>2823</v>
       </c>
       <c r="E9" t="n">
-        <v>2482</v>
+        <v>4754</v>
       </c>
       <c r="F9" t="n">
-        <v>2490</v>
+        <v>4764</v>
       </c>
       <c r="G9" t="n">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="H9" t="n">
-        <v>2363</v>
+        <v>3288</v>
       </c>
       <c r="I9" t="n">
-        <v>2005</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n">
-        <v>2192</v>
+        <v>2655</v>
       </c>
       <c r="D10" t="n">
-        <v>2269</v>
+        <v>2854</v>
       </c>
       <c r="E10" t="n">
-        <v>2608</v>
+        <v>5134</v>
       </c>
       <c r="F10" t="n">
-        <v>2617</v>
+        <v>5145</v>
       </c>
       <c r="G10" t="n">
-        <v>282</v>
+        <v>447</v>
       </c>
       <c r="H10" t="n">
-        <v>2420</v>
+        <v>3388</v>
       </c>
       <c r="I10" t="n">
-        <v>2094</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" t="n">
-        <v>2340</v>
+        <v>2752</v>
       </c>
       <c r="D11" t="n">
-        <v>2441</v>
+        <v>2876</v>
       </c>
       <c r="E11" t="n">
-        <v>2782</v>
+        <v>5356</v>
       </c>
       <c r="F11" t="n">
-        <v>2790</v>
+        <v>5368</v>
       </c>
       <c r="G11" t="n">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="H11" t="n">
-        <v>2525</v>
+        <v>3488</v>
       </c>
       <c r="I11" t="n">
-        <v>2149</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C12" t="n">
-        <v>2563</v>
+        <v>2765</v>
       </c>
       <c r="D12" t="n">
-        <v>2609</v>
+        <v>2869</v>
       </c>
       <c r="E12" t="n">
-        <v>3135</v>
+        <v>5501</v>
       </c>
       <c r="F12" t="n">
-        <v>3145</v>
+        <v>5513</v>
       </c>
       <c r="G12" t="n">
-        <v>330</v>
+        <v>463</v>
       </c>
       <c r="H12" t="n">
-        <v>2696</v>
+        <v>3531</v>
       </c>
       <c r="I12" t="n">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>151</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2801</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2894</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3497</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3506</v>
-      </c>
-      <c r="G13" t="n">
-        <v>339</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2880</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>154</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2921</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3018</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3684</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3693</v>
-      </c>
-      <c r="G14" t="n">
-        <v>354</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2977</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>155</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2928</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3127</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3993</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4002</v>
-      </c>
-      <c r="G15" t="n">
-        <v>368</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3071</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>155</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2840</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3032</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4239</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4247</v>
-      </c>
-      <c r="G16" t="n">
-        <v>380</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3140</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>156</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2732</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2916</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4231</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4240</v>
-      </c>
-      <c r="G17" t="n">
-        <v>408</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3166</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>145</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2820</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4439</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4449</v>
-      </c>
-      <c r="G18" t="n">
-        <v>418</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3202</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>138</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2542</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2823</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4754</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4764</v>
-      </c>
-      <c r="G19" t="n">
-        <v>436</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3288</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>136</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2655</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2854</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5134</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5145</v>
-      </c>
-      <c r="G20" t="n">
-        <v>447</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3388</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>137</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2752</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2876</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5356</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5368</v>
-      </c>
-      <c r="G21" t="n">
-        <v>462</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3488</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2843</v>
+        <v>2886</v>
       </c>
     </row>
   </sheetData>
